--- a/mcmaster_excel/Decorative_Round_Head_Combination_Phillips/Slotted_Screws.xlsx
+++ b/mcmaster_excel/Decorative_Round_Head_Combination_Phillips/Slotted_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,129 +434,97 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Tensile Strength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.162"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.069"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>Tensile Strength, psi</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>ASME B18.6.3</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>91440A633</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>$2.84</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>2-56</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Zinc-Plated Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -596,12 +564,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>91440A634</t>
+          <t>91440A633</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>$2.84</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -618,7 +586,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -628,12 +596,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.211"</t>
+          <t>0.162"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.086"</t>
+          <t>0.069"</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -658,17 +626,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>91440A621</t>
+          <t>91440A634</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -680,7 +648,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -720,12 +688,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>91440A622</t>
+          <t>91440A621</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4.91</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -742,7 +710,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -782,12 +750,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>91440A623</t>
+          <t>91440A622</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>4.91</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -804,7 +772,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -814,17 +782,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.260"</t>
+          <t>0.211"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.103"</t>
+          <t>0.086"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -844,17 +812,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>91440A624</t>
+          <t>91440A623</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -866,7 +834,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -891,7 +859,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -906,12 +874,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>91440A144</t>
+          <t>91440A624</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -928,7 +896,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -968,12 +936,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>91440A148</t>
+          <t>91440A144</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -990,7 +958,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1015,7 +983,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1030,12 +998,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>91440A625</t>
+          <t>91440A148</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1052,7 +1020,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1077,7 +1045,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1092,12 +1060,12 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>91440A151</t>
+          <t>91440A625</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1114,7 +1082,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1154,7 +1122,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>91440A153</t>
+          <t>91440A151</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1176,7 +1144,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1216,12 +1184,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>91440A155</t>
+          <t>91440A153</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>6.31</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1238,7 +1206,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1278,12 +1246,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>91440A157</t>
+          <t>91440A155</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>6.86</t>
+          <t>6.31</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1300,7 +1268,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1340,12 +1308,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>91440A159</t>
+          <t>91440A157</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>8.60</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1362,7 +1330,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1402,12 +1370,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>91440A161</t>
+          <t>91440A159</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>11.87</t>
+          <t>8.60</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1424,7 +1392,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1459,17 +1427,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>91440A163</t>
+          <t>91440A161</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>8.92</t>
+          <t>11.87</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1486,7 +1454,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>4"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1496,12 +1464,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.309"</t>
+          <t>0.260"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.120"</t>
+          <t>0.103"</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1521,22 +1489,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>91440A189</t>
+          <t>91440A163</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>8.92</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1548,7 +1516,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1588,12 +1556,12 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>91440A192</t>
+          <t>91440A189</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>5.16</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1610,7 +1578,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1650,12 +1618,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>91440A195</t>
+          <t>91440A192</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1672,7 +1640,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1697,7 +1665,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1712,12 +1680,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>91440A626</t>
+          <t>91440A195</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>3.28</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1734,7 +1702,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1759,7 +1727,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1774,12 +1742,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>91440A197</t>
+          <t>91440A626</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>3.28</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1796,7 +1764,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1836,12 +1804,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>91440A199</t>
+          <t>91440A197</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>5.21</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1858,7 +1826,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1898,12 +1866,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>91440A201</t>
+          <t>91440A199</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>6.14</t>
+          <t>5.21</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1920,7 +1888,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1960,12 +1928,12 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>91440A203</t>
+          <t>91440A201</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>6.14</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1982,7 +1950,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2022,12 +1990,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>91440A205</t>
+          <t>91440A203</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2044,7 +2012,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2084,12 +2052,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>91440A209</t>
+          <t>91440A205</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>12.59</t>
+          <t>9.79</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2106,7 +2074,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2146,12 +2114,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>91440A213</t>
+          <t>91440A209</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>14.45</t>
+          <t>12.59</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2168,7 +2136,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2178,12 +2146,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.359"</t>
+          <t>0.309"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.137"</t>
+          <t>0.120"</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2193,7 +2161,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2208,17 +2176,17 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>91440A627</t>
+          <t>91440A213</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>14.45</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>10-24</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2230,7 +2198,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2255,7 +2223,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2270,12 +2238,12 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>91440A242</t>
+          <t>91440A627</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2292,7 +2260,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2317,7 +2285,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2332,12 +2300,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>91440A628</t>
+          <t>91440A242</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>5.63</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2354,7 +2322,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -2379,7 +2347,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2394,12 +2362,12 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>91440A245</t>
+          <t>91440A628</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>7.32</t>
+          <t>5.63</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2416,7 +2384,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2456,12 +2424,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>91440A247</t>
+          <t>91440A245</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>7.36</t>
+          <t>7.32</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2478,7 +2446,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2518,12 +2486,12 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>91440A249</t>
+          <t>91440A247</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>8.48</t>
+          <t>7.36</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2540,7 +2508,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2580,12 +2548,12 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>91440A251</t>
+          <t>91440A249</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>9.31</t>
+          <t>8.48</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2602,7 +2570,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2642,12 +2610,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>91440A253</t>
+          <t>91440A251</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>11.69</t>
+          <t>9.31</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2664,7 +2632,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2689,7 +2657,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2704,12 +2672,12 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>91440A636</t>
+          <t>91440A253</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>12.29</t>
+          <t>11.69</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2726,7 +2694,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2751,7 +2719,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2761,17 +2729,17 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>91440A257</t>
+          <t>91440A636</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>13.54</t>
+          <t>12.29</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -2788,7 +2756,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5"</t>
+          <t>4"</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2823,17 +2791,17 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>91440A259</t>
+          <t>91440A257</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>11.49</t>
+          <t>13.54</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2850,7 +2818,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2885,22 +2853,22 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>91440A503</t>
+          <t>91440A259</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>11.49</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>10-24</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -2912,7 +2880,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2952,12 +2920,12 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>91440A506</t>
+          <t>91440A503</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>6.80</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2974,7 +2942,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2999,7 +2967,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3014,12 +2982,12 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>91440A629</t>
+          <t>91440A506</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>6.80</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3036,7 +3004,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -3061,7 +3029,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3076,12 +3044,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>91440A509</t>
+          <t>91440A629</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>7.13</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3098,7 +3066,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -3138,12 +3106,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>91440A512</t>
+          <t>91440A509</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3160,7 +3128,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -3200,12 +3168,12 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>91440A516</t>
+          <t>91440A512</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>7.28</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3222,7 +3190,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -3262,12 +3230,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>91440A519</t>
+          <t>91440A516</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>9.31</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -3284,7 +3252,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -3324,12 +3292,12 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>91440A522</t>
+          <t>91440A519</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>11.69</t>
+          <t>9.31</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3346,7 +3314,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -3371,7 +3339,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3386,12 +3354,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>91440A637</t>
+          <t>91440A522</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>12.57</t>
+          <t>11.69</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3408,7 +3376,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -3418,22 +3386,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0.472"</t>
+          <t>0.359"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.137"</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3448,17 +3416,17 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>91440A535</t>
+          <t>91440A637</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>12.57</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
@@ -3470,7 +3438,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -3510,7 +3478,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>91440A537</t>
+          <t>91440A535</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3532,7 +3500,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3557,7 +3525,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3572,12 +3540,12 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>91440A631</t>
+          <t>91440A537</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3594,7 +3562,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3619,7 +3587,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3634,12 +3602,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>91440A540</t>
+          <t>91440A631</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3656,7 +3624,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3696,12 +3664,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>91440A542</t>
+          <t>91440A540</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>10.59</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3718,7 +3686,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3758,12 +3726,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>91440A544</t>
+          <t>91440A542</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>11.86</t>
+          <t>10.59</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -3780,7 +3748,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3820,12 +3788,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>91440A546</t>
+          <t>91440A544</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>11.86</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3842,7 +3810,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1 3/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3867,7 +3835,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3877,17 +3845,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>91440A632</t>
+          <t>91440A546</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>7.97</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3904,7 +3872,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2"</t>
+          <t>1 3/4"</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3929,7 +3897,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>60,000</t>
+          <t>Not Rated</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3939,17 +3907,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>91440A550</t>
+          <t>91440A632</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>14.40</t>
+          <t>7.97</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3966,7 +3934,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2 1/2"</t>
+          <t>2"</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -4001,17 +3969,17 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>100</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>91440A552</t>
+          <t>91440A550</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>11.09</t>
+          <t>14.40</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4028,7 +3996,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>3"</t>
+          <t>2 1/2"</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -4068,12 +4036,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>91440A554</t>
+          <t>91440A552</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>12.97</t>
+          <t>11.09</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4090,7 +4058,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4"</t>
+          <t>3"</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -4125,17 +4093,17 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>50</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>91440A556</t>
+          <t>91440A554</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>13.10</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4152,7 +4120,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>5"</t>
+          <t>4"</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -4192,12 +4160,12 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>91440A558</t>
+          <t>91440A556</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>13.20</t>
+          <t>13.10</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4214,7 +4182,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>6"</t>
+          <t>5"</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -4254,12 +4222,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>91440A560</t>
+          <t>91440A558</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>16.15</t>
+          <t>13.20</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4276,7 +4244,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4"</t>
+          <t>6"</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -4286,17 +4254,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0.708"</t>
+          <t>0.472"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.256"</t>
+          <t>0.175"</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>No. 4</t>
+          <t>No. 3</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -4311,22 +4279,22 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>91440A620</t>
+          <t>91440A560</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>16.15</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>3/8"-16</t>
+          <t>1/4"-20</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4338,7 +4306,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>5"</t>
+          <t>4"</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -4363,7 +4331,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Not Rated</t>
+          <t>60,000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4373,17 +4341,17 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>91440A638</t>
+          <t>91440A620</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>10.60</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -4400,60 +4368,122 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>5"</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.708"</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.256"</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>No. 4</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Not Rated</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>91440A638</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>3/8"-16</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Zinc-Plated Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>6"</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Fully Threaded</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>0.708"</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>0.256"</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>No. 4</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>Not Rated</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>ASME B18.6.3</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>ASME B18.6.3</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>91440A639</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>8.18</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>3/8"-16</t>
         </is>
       </c>
-      <c r="L65" t="inlineStr">
+      <c r="L66" t="inlineStr">
         <is>
           <t>Zinc-Plated Steel</t>
         </is>
